--- a/pred_ohlcv/54_21/2019-10-27 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 RDN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-8445.909670056499</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-8987.909670056499</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-8986.909670056499</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3386.909670056499</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2887.621470056499</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1925.478529943502</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2074.478529943502</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2372.642870056498</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2371.642870056498</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3528.742870056498</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-6882.242770056499</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-6881.242770056499</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-8268.242670056499</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-10313.2425700565</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-10313.2425700565</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-10312.2425700565</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-14209.2425700565</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-14209.2425700565</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-79858.92551833235</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-79403.30331833236</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-79403.30331833236</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-79825.30321833235</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 RDN ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-8987.909670056499</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-8986.909670056499</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3386.909670056499</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2887.621470056499</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1010.726570056499</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2372.642870056498</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2371.642870056498</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-3529.742870056498</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-3528.742870056498</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-6882.242770056499</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-6881.242770056499</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-8268.242670056499</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-9759.2425700565</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-10313.2425700565</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-10313.2425700565</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-10312.2425700565</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-14209.2425700565</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-14209.2425700565</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-79858.92551833235</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-79858.92551833235</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-79403.30331833236</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-79403.30331833236</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-79825.30321833235</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-80268.18491833235</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
